--- a/src/app/relevo/subirExcel/Libro1.xlsx
+++ b/src/app/relevo/subirExcel/Libro1.xlsx
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t xml:space="preserve">SUPERVISOR </t>
   </si>
@@ -132,12 +132,6 @@
     <t>Blanca</t>
   </si>
   <si>
-    <t>06-01-2018</t>
-  </si>
-  <si>
-    <t>15-01-2018</t>
-  </si>
-  <si>
     <t>nombreCompleto</t>
   </si>
   <si>
@@ -145,6 +139,39 @@
   </si>
   <si>
     <t>fechaSalida</t>
+  </si>
+  <si>
+    <t>Azul</t>
+  </si>
+  <si>
+    <t>02-04-2018</t>
+  </si>
+  <si>
+    <t>02-04-2019</t>
+  </si>
+  <si>
+    <t>02-04-2020</t>
+  </si>
+  <si>
+    <t>02-04-2021</t>
+  </si>
+  <si>
+    <t>02-04-2022</t>
+  </si>
+  <si>
+    <t>02-04-2023</t>
+  </si>
+  <si>
+    <t>02-04-2024</t>
+  </si>
+  <si>
+    <t>02-04-2025</t>
+  </si>
+  <si>
+    <t>02-04-2026</t>
+  </si>
+  <si>
+    <t>20-04-2018</t>
   </si>
 </sst>
 </file>
@@ -371,87 +398,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="52">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -542,13 +489,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -563,20 +503,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
@@ -584,85 +510,24 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1297,7 +1162,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,7 +1182,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -1326,10 +1191,10 @@
         <v>14</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1346,13 +1211,13 @@
         <v>42199364</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1369,13 +1234,13 @@
         <v>44753423</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1395,10 +1260,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1418,10 +1283,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1441,10 +1306,10 @@
         <v>15</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1464,10 +1329,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1487,10 +1352,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1510,10 +1375,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H9" s="12"/>
     </row>
@@ -1534,10 +1399,10 @@
         <v>15</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1558,172 +1423,172 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:C10">
-    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C10">
-    <cfRule type="cellIs" dxfId="68" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="50" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="51" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C10 B2:D3">
-    <cfRule type="cellIs" dxfId="66" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="47" operator="equal">
       <formula>"V3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"V2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="49" operator="equal">
       <formula>"V1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C10">
-    <cfRule type="cellIs" dxfId="63" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C10">
-    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C10">
-    <cfRule type="cellIs" dxfId="60" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="43" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="59" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="duplicateValues" dxfId="58" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="41"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="duplicateValues" dxfId="57" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="56" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8:C10 C4:C6">
-    <cfRule type="duplicateValues" dxfId="55" priority="38"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="38"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D3">
-    <cfRule type="duplicateValues" dxfId="54" priority="36"/>
-    <cfRule type="duplicateValues" dxfId="53" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="36"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="37"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="duplicateValues" dxfId="52" priority="34"/>
-    <cfRule type="duplicateValues" dxfId="51" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="34"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="35"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D10">
-    <cfRule type="duplicateValues" dxfId="50" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:D10">
-    <cfRule type="duplicateValues" dxfId="49" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="duplicateValues" dxfId="48" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C3">
-    <cfRule type="duplicateValues" dxfId="47" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C10">
-    <cfRule type="duplicateValues" dxfId="45" priority="28"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="44" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="43" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="27"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="duplicateValues" dxfId="42" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="41" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="40" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="39" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="38" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="37" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="duplicateValues" dxfId="36" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>"T"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"V3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"V2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"V1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"P"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"DM"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C12">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"T"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="duplicateValues" dxfId="13" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="duplicateValues" dxfId="11" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D12">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:D12">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C12">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
